--- a/sites.xlsx
+++ b/sites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\oceanobs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\django\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F15BFE-93B3-46B9-9FB5-C12B4FB4CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488EC56-A3CC-418E-9242-9A076D709373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="82">
   <si>
     <t>CAM050</t>
   </si>
@@ -267,28 +267,10 @@
     <t>Group</t>
   </si>
   <si>
-    <t>NRS</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>GBR South</t>
-  </si>
-  <si>
-    <t>GBR North</t>
-  </si>
-  <si>
-    <t>ITF</t>
-  </si>
-  <si>
-    <t>KIM</t>
-  </si>
-  <si>
-    <t>PIL</t>
-  </si>
-  <si>
-    <t>NWS</t>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Loaded</t>
   </si>
 </sst>
 </file>
@@ -608,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +853,7 @@
         <v>2.5</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,7 +876,7 @@
         <v>2.5</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,7 +899,7 @@
         <v>2.5</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +922,7 @@
         <v>2.5</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,7 +945,7 @@
         <v>2.5</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,7 +968,7 @@
         <v>2.5</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +991,7 @@
         <v>2.5</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1014,7 @@
         <v>2.5</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1037,7 @@
         <v>2.5</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,7 +1060,7 @@
         <v>2.5</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,7 +1083,7 @@
         <v>2.5</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,7 +1106,7 @@
         <v>2.5</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1129,7 @@
         <v>2.5</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,7 +1152,7 @@
         <v>2.5</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,7 +1175,7 @@
         <v>2.5</v>
       </c>
       <c r="G25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,7 +1198,7 @@
         <v>2.5</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,7 +1221,7 @@
         <v>2.5</v>
       </c>
       <c r="G27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,7 +1244,7 @@
         <v>2.5</v>
       </c>
       <c r="G28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,7 +1267,7 @@
         <v>2.5</v>
       </c>
       <c r="G29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,7 +1290,7 @@
         <v>2.5</v>
       </c>
       <c r="G30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,7 +1313,7 @@
         <v>2.5</v>
       </c>
       <c r="G31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,7 +1336,7 @@
         <v>2.5</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,7 +1359,7 @@
         <v>2.5</v>
       </c>
       <c r="G33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,7 +1382,7 @@
         <v>2.5</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1405,7 @@
         <v>2.5</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,7 +1428,7 @@
         <v>2.5</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,7 +1451,7 @@
         <v>2.5</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,7 +1474,7 @@
         <v>2.5</v>
       </c>
       <c r="G38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,7 +1497,7 @@
         <v>2.5</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,7 +1520,7 @@
         <v>2.5</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1561,7 +1543,7 @@
         <v>2.5</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1584,7 +1566,7 @@
         <v>2.5</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1607,7 +1589,7 @@
         <v>2.5</v>
       </c>
       <c r="G43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,7 +1612,7 @@
         <v>2.5</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1653,7 +1635,7 @@
         <v>2.5</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,7 +1658,7 @@
         <v>2.5</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,7 +1681,7 @@
         <v>2.5</v>
       </c>
       <c r="G47" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1704,7 @@
         <v>2.5</v>
       </c>
       <c r="G48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1745,7 +1727,7 @@
         <v>2.5</v>
       </c>
       <c r="G49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1768,7 +1750,7 @@
         <v>2.5</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,7 +1773,7 @@
         <v>2.5</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,7 +1796,7 @@
         <v>2.5</v>
       </c>
       <c r="G52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1837,7 +1819,7 @@
         <v>2.5</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1860,7 +1842,7 @@
         <v>2.5</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,7 +1865,7 @@
         <v>2.5</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,7 +1888,7 @@
         <v>2.5</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1911,7 @@
         <v>2.5</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +1934,7 @@
         <v>2.5</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,7 +1957,7 @@
         <v>2.5</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,7 +1980,7 @@
         <v>2.5</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,7 +2003,7 @@
         <v>2.5</v>
       </c>
       <c r="G61" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,7 +2026,7 @@
         <v>2.5</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,7 +2049,7 @@
         <v>2.5</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,7 +2072,7 @@
         <v>2.5</v>
       </c>
       <c r="G64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,7 +2095,7 @@
         <v>2.5</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2136,7 +2118,7 @@
         <v>2.5</v>
       </c>
       <c r="G66" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,7 +2141,7 @@
         <v>2.5</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,7 +2164,7 @@
         <v>2.5</v>
       </c>
       <c r="G68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2205,7 +2187,7 @@
         <v>2.5</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2228,7 +2210,7 @@
         <v>2.5</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2251,7 +2233,7 @@
         <v>2.5</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2274,7 +2256,7 @@
         <v>2.5</v>
       </c>
       <c r="G72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,7 +2279,7 @@
         <v>2.5</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2320,7 +2302,7 @@
         <v>2.5</v>
       </c>
       <c r="G74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\django\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2488EC56-A3CC-418E-9242-9A076D709373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B92B2EA-C744-4146-B965-820CA221FC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>2.5</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,7 +807,7 @@
         <v>2.5</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1175,7 +1175,7 @@
         <v>2.5</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>2.5</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1221,7 +1221,7 @@
         <v>2.5</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1244,7 +1244,7 @@
         <v>2.5</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1267,7 +1267,7 @@
         <v>2.5</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>2.5</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>2.5</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>2.5</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>2.5</v>
       </c>
       <c r="G66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2141,7 +2141,7 @@
         <v>2.5</v>
       </c>
       <c r="G67" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>2.5</v>
       </c>
       <c r="G68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\django\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B92B2EA-C744-4146-B965-820CA221FC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE89EF0-219C-45A2-9D79-8CD18FD79077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>2.5</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\django\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE89EF0-219C-45A2-9D79-8CD18FD79077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB75963-A206-4FC6-BFF7-4E494160B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,7 +1221,7 @@
         <v>2.5</v>
       </c>
       <c r="G27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/sites.xlsx
+++ b/sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tarmstro\PycharmProjects\django\django_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB75963-A206-4FC6-BFF7-4E494160B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7A6F64-D1F5-47E2-A63B-7CB638269405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -591,7 +591,7 @@
   <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +643,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,10 +666,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,10 +689,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F5">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
@@ -735,10 +735,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,10 +758,10 @@
         <v>0.05</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F8">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="s">
         <v>81</v>
@@ -804,7 +804,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G9" t="s">
         <v>81</v>
@@ -827,7 +827,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F10">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G10" t="s">
         <v>80</v>
@@ -850,7 +850,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F11">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G11" t="s">
         <v>80</v>
@@ -873,7 +873,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F12">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="s">
         <v>80</v>
@@ -896,7 +896,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F13">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="s">
         <v>80</v>
@@ -919,7 +919,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F14">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
@@ -942,7 +942,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F15">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
@@ -965,7 +965,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F16">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
@@ -988,7 +988,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F17">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G17" t="s">
         <v>80</v>
@@ -1011,7 +1011,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G18" t="s">
         <v>80</v>
@@ -1034,7 +1034,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F19">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G19" t="s">
         <v>80</v>
@@ -1057,7 +1057,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F20">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G20" t="s">
         <v>80</v>
@@ -1080,7 +1080,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F21">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G21" t="s">
         <v>80</v>
@@ -1103,7 +1103,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F22">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G22" t="s">
         <v>80</v>
@@ -1126,7 +1126,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F23">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G23" t="s">
         <v>80</v>
@@ -1149,7 +1149,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F24">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G24" t="s">
         <v>80</v>
@@ -1172,7 +1172,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F25">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G25" t="s">
         <v>81</v>
@@ -1195,7 +1195,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F26">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G26" t="s">
         <v>81</v>
@@ -1218,7 +1218,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F27">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="s">
         <v>80</v>
@@ -1241,7 +1241,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F28">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G28" t="s">
         <v>81</v>
@@ -1264,7 +1264,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F29">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G29" t="s">
         <v>81</v>
@@ -1287,7 +1287,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F30">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="s">
         <v>81</v>
@@ -1310,7 +1310,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F31">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G31" t="s">
         <v>81</v>
@@ -1333,7 +1333,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F32">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G32" t="s">
         <v>80</v>
@@ -1356,7 +1356,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F33">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G33" t="s">
         <v>81</v>
@@ -1379,7 +1379,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F34">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G34" t="s">
         <v>80</v>
@@ -1402,7 +1402,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F35">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G35" t="s">
         <v>80</v>
@@ -1425,7 +1425,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F36">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G36" t="s">
         <v>80</v>
@@ -1448,7 +1448,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F37">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G37" t="s">
         <v>80</v>
@@ -1471,7 +1471,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F38">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G38" t="s">
         <v>80</v>
@@ -1494,7 +1494,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F39">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G39" t="s">
         <v>80</v>
@@ -1517,7 +1517,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F40">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G40" t="s">
         <v>80</v>
@@ -1540,7 +1540,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F41">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G41" t="s">
         <v>80</v>
@@ -1563,7 +1563,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F42">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G42" t="s">
         <v>80</v>
@@ -1586,7 +1586,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F43">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G43" t="s">
         <v>80</v>
@@ -1609,7 +1609,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F44">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G44" t="s">
         <v>80</v>
@@ -1632,7 +1632,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F45">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G45" t="s">
         <v>80</v>
@@ -1655,7 +1655,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F46">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G46" t="s">
         <v>80</v>
@@ -1678,10 +1678,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F47">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1701,10 +1701,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F48">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,10 +1724,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F49">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,10 +1747,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F50">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1770,10 +1770,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F51">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G51" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1793,10 +1793,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F52">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G52" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F53">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G53" t="s">
         <v>80</v>
@@ -1839,10 +1839,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F54">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G54" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1862,10 +1862,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F55">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1885,10 +1885,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F56">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1908,10 +1908,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F57">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1931,7 +1931,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F58">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G58" t="s">
         <v>80</v>
@@ -1954,7 +1954,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F59">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G59" t="s">
         <v>80</v>
@@ -1977,7 +1977,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F60">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G60" t="s">
         <v>80</v>
@@ -2000,7 +2000,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F61">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G61" t="s">
         <v>81</v>
@@ -2023,10 +2023,10 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F62">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F63">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G63" t="s">
         <v>80</v>
@@ -2069,7 +2069,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F64">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G64" t="s">
         <v>80</v>
@@ -2092,7 +2092,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F65">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G65" t="s">
         <v>81</v>
@@ -2115,7 +2115,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F66">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G66" t="s">
         <v>81</v>
@@ -2138,7 +2138,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F67">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G67" t="s">
         <v>81</v>
@@ -2161,7 +2161,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F68">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G68" t="s">
         <v>81</v>
@@ -2184,7 +2184,7 @@
         <v>0.05</v>
       </c>
       <c r="F69">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G69" t="s">
         <v>80</v>
@@ -2207,7 +2207,7 @@
         <v>0.05</v>
       </c>
       <c r="F70">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G70" t="s">
         <v>80</v>
@@ -2230,7 +2230,7 @@
         <v>0.05</v>
       </c>
       <c r="F71">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G71" t="s">
         <v>80</v>
@@ -2253,7 +2253,7 @@
         <v>0.05</v>
       </c>
       <c r="F72">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G72" t="s">
         <v>80</v>
@@ -2276,7 +2276,7 @@
         <v>0.05</v>
       </c>
       <c r="F73">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G73" t="s">
         <v>80</v>
@@ -2299,7 +2299,7 @@
         <v>0.05</v>
       </c>
       <c r="F74">
-        <v>2.5</v>
+        <v>0.01</v>
       </c>
       <c r="G74" t="s">
         <v>80</v>
